--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H2">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I2">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J2">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.84251179112794</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N2">
-        <v>3.84251179112794</v>
+        <v>3.327523</v>
       </c>
       <c r="O2">
-        <v>0.4948967783740351</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="P2">
-        <v>0.4948967783740351</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="Q2">
-        <v>102.1636280905394</v>
+        <v>31.60521904208122</v>
       </c>
       <c r="R2">
-        <v>102.1636280905394</v>
+        <v>284.446971378731</v>
       </c>
       <c r="S2">
-        <v>0.02309248365583376</v>
+        <v>0.00292555472963423</v>
       </c>
       <c r="T2">
-        <v>0.02309248365583376</v>
+        <v>0.002925554729634231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.5877201278672</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H3">
-        <v>26.5877201278672</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I3">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J3">
-        <v>0.04666121232735289</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.92175736364888</v>
+        <v>4.402069333333333</v>
       </c>
       <c r="N3">
-        <v>3.92175736364888</v>
+        <v>13.206208</v>
       </c>
       <c r="O3">
-        <v>0.505103221625965</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="P3">
-        <v>0.505103221625965</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="Q3">
-        <v>104.2705871940987</v>
+        <v>125.4341732740195</v>
       </c>
       <c r="R3">
-        <v>104.2705871940987</v>
+        <v>1128.907559466176</v>
       </c>
       <c r="S3">
-        <v>0.02356872867151914</v>
+        <v>0.01161088421475476</v>
       </c>
       <c r="T3">
-        <v>0.02356872867151914</v>
+        <v>0.01161088421475476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.682838065087</v>
+        <v>28.49436566666666</v>
       </c>
       <c r="H4">
-        <v>141.682838065087</v>
+        <v>85.48309699999999</v>
       </c>
       <c r="I4">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421807</v>
       </c>
       <c r="J4">
-        <v>0.2486521205392012</v>
+        <v>0.04826188997421808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84251179112794</v>
+        <v>12.78643133333333</v>
       </c>
       <c r="N4">
-        <v>3.84251179112794</v>
+        <v>38.359294</v>
       </c>
       <c r="O4">
-        <v>0.4948967783740351</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="P4">
-        <v>0.4948967783740351</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="Q4">
-        <v>544.4179758655673</v>
+        <v>364.3412499837241</v>
       </c>
       <c r="R4">
-        <v>544.4179758655673</v>
+        <v>3279.071249853517</v>
       </c>
       <c r="S4">
-        <v>0.1230571333907229</v>
+        <v>0.03372545102982908</v>
       </c>
       <c r="T4">
-        <v>0.1230571333907229</v>
+        <v>0.03372545102982909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.682838065087</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H5">
-        <v>141.682838065087</v>
+        <v>426.244309</v>
       </c>
       <c r="I5">
-        <v>0.2486521205392012</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J5">
-        <v>0.2486521205392012</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.92175736364888</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N5">
-        <v>3.92175736364888</v>
+        <v>3.327523</v>
       </c>
       <c r="O5">
-        <v>0.505103221625965</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="P5">
-        <v>0.505103221625965</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="Q5">
-        <v>555.6457134844268</v>
+        <v>157.5930824240675</v>
       </c>
       <c r="R5">
-        <v>555.6457134844268</v>
+        <v>1418.337741816607</v>
       </c>
       <c r="S5">
-        <v>0.1255949871484783</v>
+        <v>0.01458769157807449</v>
       </c>
       <c r="T5">
-        <v>0.1255949871484783</v>
+        <v>0.01458769157807449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H6">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I6">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J6">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.84251179112794</v>
+        <v>4.402069333333333</v>
       </c>
       <c r="N6">
-        <v>3.84251179112794</v>
+        <v>13.206208</v>
       </c>
       <c r="O6">
-        <v>0.4948967783740351</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="P6">
-        <v>0.4948967783740351</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="Q6">
-        <v>806.1061317864722</v>
+        <v>625.4523337189192</v>
       </c>
       <c r="R6">
-        <v>806.1061317864722</v>
+        <v>5629.071003470272</v>
       </c>
       <c r="S6">
-        <v>0.1822076312388742</v>
+        <v>0.05789534414034102</v>
       </c>
       <c r="T6">
-        <v>0.1822076312388742</v>
+        <v>0.05789534414034102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>209.786248059852</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H7">
-        <v>209.786248059852</v>
+        <v>426.244309</v>
       </c>
       <c r="I7">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="J7">
-        <v>0.3681729993020171</v>
+        <v>0.2406482294750577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.92175736364888</v>
+        <v>12.78643133333333</v>
       </c>
       <c r="N7">
-        <v>3.92175736364888</v>
+        <v>38.359294</v>
       </c>
       <c r="O7">
-        <v>0.505103221625965</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="P7">
-        <v>0.505103221625965</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="Q7">
-        <v>822.7307631209951</v>
+        <v>1816.714529417539</v>
       </c>
       <c r="R7">
-        <v>822.7307631209951</v>
+        <v>16350.43076475785</v>
       </c>
       <c r="S7">
-        <v>0.185965368063143</v>
+        <v>0.1681651937566422</v>
       </c>
       <c r="T7">
-        <v>0.185965368063143</v>
+        <v>0.1681651937566422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>127.549377663799</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H8">
-        <v>127.549377663799</v>
+        <v>629.753159</v>
       </c>
       <c r="I8">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J8">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>3.84251179112794</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N8">
-        <v>3.84251179112794</v>
+        <v>3.327523</v>
       </c>
       <c r="O8">
-        <v>0.4948967783740351</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="P8">
-        <v>0.4948967783740351</v>
+        <v>0.06061832081580493</v>
       </c>
       <c r="Q8">
-        <v>490.1099876241784</v>
+        <v>232.8353467661285</v>
       </c>
       <c r="R8">
-        <v>490.1099876241784</v>
+        <v>2095.518120895157</v>
       </c>
       <c r="S8">
-        <v>0.1107816655526575</v>
+        <v>0.02155253374611062</v>
       </c>
       <c r="T8">
-        <v>0.1107816655526575</v>
+        <v>0.02155253374611062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>127.549377663799</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H9">
-        <v>127.549377663799</v>
+        <v>629.753159</v>
       </c>
       <c r="I9">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J9">
-        <v>0.2238480232516901</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.92175736364888</v>
+        <v>4.402069333333333</v>
       </c>
       <c r="N9">
-        <v>3.92175736364888</v>
+        <v>13.206208</v>
       </c>
       <c r="O9">
-        <v>0.505103221625965</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="P9">
-        <v>0.505103221625965</v>
+        <v>0.2405808023879173</v>
       </c>
       <c r="Q9">
-        <v>500.2177110818357</v>
+        <v>924.0723562678969</v>
       </c>
       <c r="R9">
-        <v>500.2177110818357</v>
+        <v>8316.651206411072</v>
       </c>
       <c r="S9">
-        <v>0.1130663576990326</v>
+        <v>0.08553727309417729</v>
       </c>
       <c r="T9">
-        <v>0.1130663576990326</v>
+        <v>0.08553727309417729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.19727385342431</v>
+        <v>209.9177196666667</v>
       </c>
       <c r="H10">
-        <v>64.19727385342431</v>
+        <v>629.753159</v>
       </c>
       <c r="I10">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="J10">
-        <v>0.1126656445797387</v>
+        <v>0.3555448824061003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.84251179112794</v>
+        <v>12.78643133333333</v>
       </c>
       <c r="N10">
-        <v>3.84251179112794</v>
+        <v>38.359294</v>
       </c>
       <c r="O10">
-        <v>0.4948967783740351</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="P10">
-        <v>0.4948967783740351</v>
+        <v>0.6988008767962779</v>
       </c>
       <c r="Q10">
-        <v>246.6787817400523</v>
+        <v>2684.09850816775</v>
       </c>
       <c r="R10">
-        <v>246.6787817400523</v>
+        <v>24156.88657350975</v>
       </c>
       <c r="S10">
-        <v>0.05575786453594676</v>
+        <v>0.2484550755658124</v>
       </c>
       <c r="T10">
-        <v>0.05575786453594676</v>
+        <v>0.2484550755658124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>132.271009</v>
+      </c>
+      <c r="H11">
+        <v>396.813027</v>
+      </c>
+      <c r="I11">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J11">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.327523</v>
+      </c>
+      <c r="O11">
+        <v>0.06061832081580493</v>
+      </c>
+      <c r="P11">
+        <v>0.06061832081580493</v>
+      </c>
+      <c r="Q11">
+        <v>146.7116082269023</v>
+      </c>
+      <c r="R11">
+        <v>1320.404474042121</v>
+      </c>
+      <c r="S11">
+        <v>0.0135804418494609</v>
+      </c>
+      <c r="T11">
+        <v>0.0135804418494609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>64.19727385342431</v>
-      </c>
-      <c r="H11">
-        <v>64.19727385342431</v>
-      </c>
-      <c r="I11">
-        <v>0.1126656445797387</v>
-      </c>
-      <c r="J11">
-        <v>0.1126656445797387</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.92175736364888</v>
-      </c>
-      <c r="N11">
-        <v>3.92175736364888</v>
-      </c>
-      <c r="O11">
-        <v>0.505103221625965</v>
-      </c>
-      <c r="P11">
-        <v>0.505103221625965</v>
-      </c>
-      <c r="Q11">
-        <v>251.7661314608505</v>
-      </c>
-      <c r="R11">
-        <v>251.7661314608505</v>
-      </c>
-      <c r="S11">
-        <v>0.05690778004379197</v>
-      </c>
-      <c r="T11">
-        <v>0.05690778004379197</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>132.271009</v>
+      </c>
+      <c r="H12">
+        <v>396.813027</v>
+      </c>
+      <c r="I12">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J12">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.402069333333333</v>
+      </c>
+      <c r="N12">
+        <v>13.206208</v>
+      </c>
+      <c r="O12">
+        <v>0.2405808023879173</v>
+      </c>
+      <c r="P12">
+        <v>0.2405808023879173</v>
+      </c>
+      <c r="Q12">
+        <v>582.2661524079574</v>
+      </c>
+      <c r="R12">
+        <v>5240.395371671617</v>
+      </c>
+      <c r="S12">
+        <v>0.05389779117856899</v>
+      </c>
+      <c r="T12">
+        <v>0.05389779117856899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>132.271009</v>
+      </c>
+      <c r="H13">
+        <v>396.813027</v>
+      </c>
+      <c r="I13">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="J13">
+        <v>0.2240319703135046</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.78643133333333</v>
+      </c>
+      <c r="N13">
+        <v>38.359294</v>
+      </c>
+      <c r="O13">
+        <v>0.6988008767962779</v>
+      </c>
+      <c r="P13">
+        <v>0.6988008767962779</v>
+      </c>
+      <c r="Q13">
+        <v>1691.274173969216</v>
+      </c>
+      <c r="R13">
+        <v>15221.46756572294</v>
+      </c>
+      <c r="S13">
+        <v>0.1565537372854747</v>
+      </c>
+      <c r="T13">
+        <v>0.1565537372854747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>77.646779</v>
+      </c>
+      <c r="H14">
+        <v>232.940337</v>
+      </c>
+      <c r="I14">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J14">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.327523</v>
+      </c>
+      <c r="O14">
+        <v>0.06061832081580493</v>
+      </c>
+      <c r="P14">
+        <v>0.06061832081580493</v>
+      </c>
+      <c r="Q14">
+        <v>86.12381433280565</v>
+      </c>
+      <c r="R14">
+        <v>775.114328995251</v>
+      </c>
+      <c r="S14">
+        <v>0.007972098912524678</v>
+      </c>
+      <c r="T14">
+        <v>0.007972098912524679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>77.646779</v>
+      </c>
+      <c r="H15">
+        <v>232.940337</v>
+      </c>
+      <c r="I15">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J15">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.402069333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.206208</v>
+      </c>
+      <c r="O15">
+        <v>0.2405808023879173</v>
+      </c>
+      <c r="P15">
+        <v>0.2405808023879173</v>
+      </c>
+      <c r="Q15">
+        <v>341.8065046680106</v>
+      </c>
+      <c r="R15">
+        <v>3076.258542012096</v>
+      </c>
+      <c r="S15">
+        <v>0.0316395097600752</v>
+      </c>
+      <c r="T15">
+        <v>0.03163950976007521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>77.646779</v>
+      </c>
+      <c r="H16">
+        <v>232.940337</v>
+      </c>
+      <c r="I16">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="J16">
+        <v>0.1315130278311194</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.78643133333333</v>
+      </c>
+      <c r="N16">
+        <v>38.359294</v>
+      </c>
+      <c r="O16">
+        <v>0.6988008767962779</v>
+      </c>
+      <c r="P16">
+        <v>0.6988008767962779</v>
+      </c>
+      <c r="Q16">
+        <v>992.8252079380086</v>
+      </c>
+      <c r="R16">
+        <v>8935.426871442078</v>
+      </c>
+      <c r="S16">
+        <v>0.09190141915851953</v>
+      </c>
+      <c r="T16">
+        <v>0.09190141915851956</v>
       </c>
     </row>
   </sheetData>
